--- a/results/CoderGears/CppDepend/RossetaCode/C_Methods_Basics (RossetaCode).xlsx
+++ b/results/CoderGears/CppDepend/RossetaCode/C_Methods_Basics (RossetaCode).xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\CoderGears\CppDepend\RossetaCode\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PREBACIVANJE (D)\UROS - IT\PMF\MASTER\Napredne teme softverskog inženjerstva\Seminarski rad\results\CoderGears\CppDepend\RossetaCode\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -884,7 +884,7 @@
     <t>Variance:</t>
   </si>
   <si>
-    <t>119 methods</t>
+    <t>117 methods</t>
   </si>
 </sst>
 </file>
@@ -1488,7 +1488,7 @@
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1531,6 +1531,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="26" fillId="39" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="26" fillId="38" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1857,8 +1860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H148"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A137" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5101,7 +5104,7 @@
         <v>205</v>
       </c>
       <c r="G143" s="18">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="H143" s="14"/>
     </row>
@@ -5110,22 +5113,22 @@
         <v>232</v>
       </c>
       <c r="B144" s="17">
-        <v>8.4873949579831933</v>
+        <v>8.632478632478632</v>
       </c>
       <c r="C144" s="17">
-        <v>0.6386554621848739</v>
+        <v>0.6495726495726496</v>
       </c>
       <c r="D144" s="17">
-        <v>1.2941176470588236</v>
+        <v>1.3162393162393162</v>
       </c>
       <c r="E144" s="17">
-        <v>1.8067226890756303</v>
+        <v>1.8376068376068375</v>
       </c>
       <c r="F144" s="17">
-        <v>1.7226890756302522</v>
+        <v>1.7521367521367521</v>
       </c>
       <c r="G144" s="17">
-        <v>0.89915966386554624</v>
+        <v>0.88034188034188032</v>
       </c>
       <c r="H144" s="14"/>
     </row>
@@ -5182,46 +5185,46 @@
         <v>235</v>
       </c>
       <c r="B147" s="16">
-        <v>8.9713508030041282</v>
+        <v>8.978224645663806</v>
       </c>
       <c r="C147" s="16">
-        <v>2.3505089469868272</v>
+        <v>2.369017392742232</v>
       </c>
       <c r="D147" s="16">
-        <v>1.0873832685460041</v>
+        <v>1.083280650786657</v>
       </c>
       <c r="E147" s="16">
-        <v>1.9715510718672757</v>
+        <v>1.9740074427126335</v>
       </c>
       <c r="F147" s="16">
-        <v>2.0038801426270765</v>
+        <v>2.008128707124067</v>
       </c>
       <c r="G147" s="16">
-        <v>0.78209971621532293</v>
-      </c>
-      <c r="H147" s="14"/>
+        <v>0.76418095546178155</v>
+      </c>
+      <c r="H147" s="20"/>
     </row>
     <row r="148" spans="1:8">
       <c r="A148" s="15" t="s">
         <v>236</v>
       </c>
       <c r="B148" s="17">
-        <v>80.485135230562818</v>
+        <v>80.608517788004974</v>
       </c>
       <c r="C148" s="17">
-        <v>5.5248923098651224</v>
+        <v>5.6122434071152023</v>
       </c>
       <c r="D148" s="17">
-        <v>1.1824023727137913</v>
+        <v>1.1734969683687633</v>
       </c>
       <c r="E148" s="17">
-        <v>3.8870136289810042</v>
+        <v>3.8967053838848709</v>
       </c>
       <c r="F148" s="17">
-        <v>4.0155356260151116</v>
+        <v>4.0325809043757763</v>
       </c>
       <c r="G148" s="17">
-        <v>0.6116799661040887</v>
+        <v>0.58397253269048144</v>
       </c>
       <c r="H148" s="14"/>
     </row>
